--- a/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B55B27C-33EF-47CF-ADC4-2EB9DA29F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE90746A-34B3-4CB1-A09C-C629D541DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33E599DE-D60B-4BC7-8072-D9EC415E1D6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5D89DB-A0C4-40A7-B1E4-31363AB2CBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,67%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
   </si>
   <si>
     <t>62,76%</t>
   </si>
   <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>25,21%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -173,652 +173,658 @@
     <t>1,0%</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1233,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF5E24D-3C5F-4830-AD36-D3F8A8BD2CD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF54ED8-B016-4268-9E50-91769477C090}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,13 +1907,13 @@
         <v>553159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1928,13 @@
         <v>201664</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>380</v>
@@ -1937,13 +1943,13 @@
         <v>247147</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1952,13 +1958,13 @@
         <v>448811</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1979,13 @@
         <v>51912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -1988,13 +1994,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -2003,13 +2009,13 @@
         <v>107169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2030,13 @@
         <v>15086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2039,13 +2045,13 @@
         <v>15438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2054,13 +2060,13 @@
         <v>30524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,7 +2122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2128,13 +2134,13 @@
         <v>319054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>356</v>
@@ -2143,13 +2149,13 @@
         <v>242340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>604</v>
@@ -2158,13 +2164,13 @@
         <v>561394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2185,13 @@
         <v>297039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>569</v>
@@ -2194,13 +2200,13 @@
         <v>359272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>876</v>
@@ -2209,13 +2215,13 @@
         <v>656312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2236,13 @@
         <v>84640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>170</v>
@@ -2245,13 +2251,13 @@
         <v>113513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>261</v>
@@ -2260,13 +2266,13 @@
         <v>198152</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2287,13 @@
         <v>20457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -2296,13 +2302,13 @@
         <v>25394</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2311,13 +2317,13 @@
         <v>45850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2385,13 +2391,13 @@
         <v>208097</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>276</v>
@@ -2400,13 +2406,13 @@
         <v>171123</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>491</v>
@@ -2415,13 +2421,13 @@
         <v>379220</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2442,13 @@
         <v>281937</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>470</v>
@@ -2451,13 +2457,13 @@
         <v>276074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>789</v>
@@ -2466,13 +2472,13 @@
         <v>558011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2493,13 @@
         <v>91003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -2502,13 +2508,13 @@
         <v>120207</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -2517,13 +2523,13 @@
         <v>211210</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2544,13 @@
         <v>15990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -2553,13 +2559,13 @@
         <v>23271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -2568,13 +2574,13 @@
         <v>39262</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,7 +2636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2642,13 +2648,13 @@
         <v>205519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>362</v>
@@ -2657,13 +2663,13 @@
         <v>306642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>655</v>
@@ -2672,13 +2678,13 @@
         <v>512161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>343129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>842</v>
@@ -2708,13 +2714,13 @@
         <v>462468</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1346</v>
@@ -2723,13 +2729,13 @@
         <v>805597</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2750,10 @@
         <v>125143</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>214</v>
@@ -2798,10 +2804,10 @@
         <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -2810,10 +2816,10 @@
         <v>35873</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>225</v>
@@ -2905,7 +2911,7 @@
         <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>1669</v>
@@ -2914,13 +2920,13 @@
         <v>1425807</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>2930</v>
@@ -2929,13 +2935,13 @@
         <v>2914978</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2971,7 @@
         <v>1671044</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>240</v>
@@ -3052,13 +3058,13 @@
         <v>78376</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>176</v>
@@ -3067,13 +3073,13 @@
         <v>116725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>262</v>
@@ -3082,13 +3088,13 @@
         <v>195101</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE90746A-34B3-4CB1-A09C-C629D541DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA58F166-8994-4714-BAE9-34F057646753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5D89DB-A0C4-40A7-B1E4-31363AB2CBB6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B3E286F-9418-4DAB-B423-318D9666E673}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF54ED8-B016-4268-9E50-91769477C090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11C0D23-A401-4EF8-ABFF-706914A0C010}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA58F166-8994-4714-BAE9-34F057646753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FD6333-1444-438D-B5FF-0F9E40F6D667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B3E286F-9418-4DAB-B423-318D9666E673}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3C4D8AD-1BAE-4B98-BDA4-CAA14D5BA728}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,67%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>62,76%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>25,21%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -173,658 +173,652 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>35,22%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>44,82%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>39,04%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11C0D23-A401-4EF8-ABFF-706914A0C010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86095A7-DDBB-4DB5-8029-CD0BF12B5877}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,13 +1901,13 @@
         <v>553159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1922,13 @@
         <v>201664</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>380</v>
@@ -1943,13 +1937,13 @@
         <v>247147</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1958,13 +1952,13 @@
         <v>448811</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1973,13 @@
         <v>51912</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -1994,13 +1988,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -2009,13 +2003,13 @@
         <v>107169</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2024,13 @@
         <v>15086</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2045,13 +2039,13 @@
         <v>15438</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2060,13 +2054,13 @@
         <v>30524</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,7 +2116,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2128,13 @@
         <v>319054</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>356</v>
@@ -2149,13 +2143,13 @@
         <v>242340</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>604</v>
@@ -2164,13 +2158,13 @@
         <v>561394</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2179,13 @@
         <v>297039</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>569</v>
@@ -2200,13 +2194,13 @@
         <v>359272</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>876</v>
@@ -2215,13 +2209,13 @@
         <v>656312</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2230,13 @@
         <v>84640</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>170</v>
@@ -2251,13 +2245,13 @@
         <v>113513</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>261</v>
@@ -2266,13 +2260,13 @@
         <v>198152</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2281,13 @@
         <v>20457</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -2302,13 +2296,13 @@
         <v>25394</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2317,13 +2311,13 @@
         <v>45850</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2373,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2385,13 @@
         <v>208097</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>276</v>
@@ -2406,13 +2400,13 @@
         <v>171123</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>491</v>
@@ -2421,13 +2415,13 @@
         <v>379220</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2436,13 @@
         <v>281937</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>470</v>
@@ -2457,13 +2451,13 @@
         <v>276074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>789</v>
@@ -2472,13 +2466,13 @@
         <v>558011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2487,13 @@
         <v>91003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -2508,13 +2502,13 @@
         <v>120207</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -2523,13 +2517,13 @@
         <v>211210</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2538,13 @@
         <v>15990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -2559,13 +2553,13 @@
         <v>23271</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -2574,13 +2568,13 @@
         <v>39262</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2630,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2642,13 @@
         <v>205519</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>362</v>
@@ -2663,13 +2657,13 @@
         <v>306642</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>655</v>
@@ -2678,13 +2672,13 @@
         <v>512161</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2693,13 @@
         <v>343129</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>842</v>
@@ -2714,13 +2708,13 @@
         <v>462468</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1346</v>
@@ -2729,13 +2723,13 @@
         <v>805597</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,10 +2744,10 @@
         <v>125143</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>214</v>
@@ -2804,10 +2798,10 @@
         <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -2816,10 +2810,10 @@
         <v>35873</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>225</v>
@@ -2911,7 +2905,7 @@
         <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="H34" s="7">
         <v>1669</v>
@@ -2920,13 +2914,13 @@
         <v>1425807</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>2930</v>
@@ -2935,13 +2929,13 @@
         <v>2914978</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2965,7 @@
         <v>1671044</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>240</v>
@@ -3058,13 +3052,13 @@
         <v>78376</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>176</v>
@@ -3073,13 +3067,13 @@
         <v>116725</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>262</v>
@@ -3088,13 +3082,13 @@
         <v>195101</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3144,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FD6333-1444-438D-B5FF-0F9E40F6D667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D599431-B3CE-4CDA-9F01-FA1BEA71A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3C4D8AD-1BAE-4B98-BDA4-CAA14D5BA728}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6E260ADC-3AAE-4112-A54F-BF01DEDE5BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="300">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -65,760 +65,874 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>3,81%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1233,8 +1347,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86095A7-DDBB-4DB5-8029-CD0BF12B5877}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB113EA-5222-4516-AE02-AB180F5C3982}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1354,7 +1468,7 @@
         <v>114</v>
       </c>
       <c r="D4" s="7">
-        <v>255470</v>
+        <v>266285</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1369,7 +1483,7 @@
         <v>116</v>
       </c>
       <c r="I4" s="7">
-        <v>204267</v>
+        <v>176574</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1384,7 +1498,7 @@
         <v>230</v>
       </c>
       <c r="N4" s="7">
-        <v>459737</v>
+        <v>442859</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1405,7 +1519,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>95159</v>
+        <v>106834</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1420,7 +1534,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>120174</v>
+        <v>109744</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1435,7 +1549,7 @@
         <v>116</v>
       </c>
       <c r="N5" s="7">
-        <v>215332</v>
+        <v>216578</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1456,7 +1570,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>26890</v>
+        <v>26702</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1471,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>26951</v>
+        <v>23538</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1486,7 +1600,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>53841</v>
+        <v>50239</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1522,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3565</v>
+        <v>3344</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1537,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>3565</v>
+        <v>3344</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1558,7 +1672,7 @@
         <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>377518</v>
+        <v>399820</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -1573,7 +1687,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1588,7 +1702,7 @@
         <v>378</v>
       </c>
       <c r="N8" s="7">
-        <v>732475</v>
+        <v>713020</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1611,7 +1725,7 @@
         <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>213505</v>
+        <v>206700</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1626,7 +1740,7 @@
         <v>205</v>
       </c>
       <c r="I9" s="7">
-        <v>235801</v>
+        <v>211550</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1641,7 +1755,7 @@
         <v>341</v>
       </c>
       <c r="N9" s="7">
-        <v>449307</v>
+        <v>418250</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1662,7 +1776,7 @@
         <v>135</v>
       </c>
       <c r="D10" s="7">
-        <v>174862</v>
+        <v>176176</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1677,7 +1791,7 @@
         <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>205908</v>
+        <v>249327</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1692,7 +1806,7 @@
         <v>330</v>
       </c>
       <c r="N10" s="7">
-        <v>380770</v>
+        <v>425503</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1713,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>29024</v>
+        <v>30237</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1728,7 +1842,7 @@
         <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>40886</v>
+        <v>36076</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1743,7 +1857,7 @@
         <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>69910</v>
+        <v>66313</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1764,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>9371</v>
+        <v>8770</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1779,31 +1893,31 @@
         <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>13184</v>
+        <v>11926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>22555</v>
+        <v>20695</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,7 +1929,7 @@
         <v>301</v>
       </c>
       <c r="D13" s="7">
-        <v>426762</v>
+        <v>421882</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -1830,7 +1944,7 @@
         <v>457</v>
       </c>
       <c r="I13" s="7">
-        <v>495779</v>
+        <v>508879</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -1845,7 +1959,7 @@
         <v>758</v>
       </c>
       <c r="N13" s="7">
-        <v>922542</v>
+        <v>930761</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -1859,7 +1973,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1868,40 +1982,40 @@
         <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>287526</v>
+        <v>275360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
       </c>
       <c r="I14" s="7">
-        <v>265634</v>
+        <v>244087</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>609</v>
       </c>
       <c r="N14" s="7">
-        <v>553159</v>
+        <v>519446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>93</v>
@@ -1919,7 +2033,7 @@
         <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>201664</v>
+        <v>197079</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
@@ -1934,7 +2048,7 @@
         <v>380</v>
       </c>
       <c r="I15" s="7">
-        <v>247147</v>
+        <v>233292</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>98</v>
@@ -1949,7 +2063,7 @@
         <v>596</v>
       </c>
       <c r="N15" s="7">
-        <v>448811</v>
+        <v>430370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>101</v>
@@ -1970,7 +2084,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>51912</v>
+        <v>48565</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -1985,7 +2099,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="7">
-        <v>55257</v>
+        <v>50893</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
@@ -2000,7 +2114,7 @@
         <v>149</v>
       </c>
       <c r="N16" s="7">
-        <v>107169</v>
+        <v>99458</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>110</v>
@@ -2021,7 +2135,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>15086</v>
+        <v>14053</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>113</v>
@@ -2036,31 +2150,31 @@
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>15438</v>
+        <v>14197</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>30524</v>
+        <v>28249</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2186,7 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>556188</v>
+        <v>535057</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -2087,7 +2201,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -2102,7 +2216,7 @@
         <v>1391</v>
       </c>
       <c r="N18" s="7">
-        <v>1139664</v>
+        <v>1077524</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2116,7 +2230,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2125,46 +2239,46 @@
         <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>319054</v>
+        <v>495084</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>356</v>
       </c>
       <c r="I19" s="7">
-        <v>242340</v>
+        <v>221411</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>604</v>
       </c>
       <c r="N19" s="7">
-        <v>561394</v>
+        <v>716495</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,46 +2290,46 @@
         <v>307</v>
       </c>
       <c r="D20" s="7">
-        <v>297039</v>
+        <v>286091</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>569</v>
       </c>
       <c r="I20" s="7">
-        <v>359272</v>
+        <v>359261</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>876</v>
       </c>
       <c r="N20" s="7">
-        <v>656312</v>
+        <v>645353</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,46 +2341,46 @@
         <v>91</v>
       </c>
       <c r="D21" s="7">
-        <v>84640</v>
+        <v>80089</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>170</v>
       </c>
       <c r="I21" s="7">
-        <v>113513</v>
+        <v>102559</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>261</v>
       </c>
       <c r="N21" s="7">
-        <v>198152</v>
+        <v>182648</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,46 +2392,46 @@
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>20457</v>
+        <v>23778</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>25394</v>
+        <v>23288</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>45850</v>
+        <v>47066</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2443,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>721189</v>
+        <v>885043</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -2344,7 +2458,7 @@
         <v>1132</v>
       </c>
       <c r="I23" s="7">
-        <v>740519</v>
+        <v>706519</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -2359,7 +2473,7 @@
         <v>1795</v>
       </c>
       <c r="N23" s="7">
-        <v>1461708</v>
+        <v>1591562</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -2373,7 +2487,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2382,43 +2496,43 @@
         <v>215</v>
       </c>
       <c r="D24" s="7">
-        <v>208097</v>
+        <v>192290</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>276</v>
       </c>
       <c r="I24" s="7">
-        <v>171123</v>
+        <v>156222</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>491</v>
       </c>
       <c r="N24" s="7">
-        <v>379220</v>
+        <v>348511</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>166</v>
@@ -2433,7 +2547,7 @@
         <v>319</v>
       </c>
       <c r="D25" s="7">
-        <v>281937</v>
+        <v>267296</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>167</v>
@@ -2448,7 +2562,7 @@
         <v>470</v>
       </c>
       <c r="I25" s="7">
-        <v>276074</v>
+        <v>254636</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>170</v>
@@ -2463,7 +2577,7 @@
         <v>789</v>
       </c>
       <c r="N25" s="7">
-        <v>558011</v>
+        <v>521932</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>173</v>
@@ -2484,7 +2598,7 @@
         <v>108</v>
       </c>
       <c r="D26" s="7">
-        <v>91003</v>
+        <v>83765</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>176</v>
@@ -2499,31 +2613,31 @@
         <v>210</v>
       </c>
       <c r="I26" s="7">
-        <v>120207</v>
+        <v>109926</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
       </c>
       <c r="N26" s="7">
-        <v>211210</v>
+        <v>193691</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2649,10 @@
         <v>19</v>
       </c>
       <c r="D27" s="7">
-        <v>15990</v>
+        <v>14870</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>185</v>
@@ -2550,31 +2664,31 @@
         <v>36</v>
       </c>
       <c r="I27" s="7">
-        <v>23271</v>
+        <v>21308</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
       </c>
       <c r="N27" s="7">
-        <v>39262</v>
+        <v>36177</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2700,7 @@
         <v>661</v>
       </c>
       <c r="D28" s="7">
-        <v>597027</v>
+        <v>558221</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -2601,7 +2715,7 @@
         <v>992</v>
       </c>
       <c r="I28" s="7">
-        <v>590676</v>
+        <v>542092</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -2616,7 +2730,7 @@
         <v>1653</v>
       </c>
       <c r="N28" s="7">
-        <v>1187703</v>
+        <v>1100312</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2630,55 +2744,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="D29" s="7">
-        <v>205519</v>
+        <v>124234</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>238</v>
+      </c>
+      <c r="I29" s="7">
+        <v>319262</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="7">
-        <v>362</v>
-      </c>
-      <c r="I29" s="7">
-        <v>306642</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>426</v>
+      </c>
+      <c r="N29" s="7">
+        <v>443496</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M29" s="7">
-        <v>655</v>
-      </c>
-      <c r="N29" s="7">
-        <v>512161</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,49 +2801,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>504</v>
+        <v>267</v>
       </c>
       <c r="D30" s="7">
-        <v>343129</v>
+        <v>173839</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>401</v>
+      </c>
+      <c r="I30" s="7">
+        <v>201287</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="7">
-        <v>842</v>
-      </c>
-      <c r="I30" s="7">
-        <v>462468</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>668</v>
+      </c>
+      <c r="N30" s="7">
+        <v>375125</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M30" s="7">
-        <v>1346</v>
-      </c>
-      <c r="N30" s="7">
-        <v>805597</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,49 +2852,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D31" s="7">
-        <v>125143</v>
+        <v>59700</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>158</v>
+      </c>
+      <c r="I31" s="7">
+        <v>73225</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H31" s="7">
-        <v>404</v>
-      </c>
-      <c r="I31" s="7">
-        <v>206788</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>258</v>
+      </c>
+      <c r="N31" s="7">
+        <v>132925</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M31" s="7">
-        <v>599</v>
-      </c>
-      <c r="N31" s="7">
-        <v>331932</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,25 +2903,25 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D32" s="7">
-        <v>17472</v>
+        <v>8867</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H32" s="7">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I32" s="7">
-        <v>35873</v>
+        <v>11699</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>223</v>
@@ -2816,22 +2930,22 @@
         <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="7">
+        <v>36</v>
+      </c>
+      <c r="N32" s="7">
+        <v>20566</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M32" s="7">
-        <v>95</v>
-      </c>
-      <c r="N32" s="7">
-        <v>53344</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1019</v>
+        <v>568</v>
       </c>
       <c r="D33" s="7">
-        <v>691263</v>
+        <v>366640</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -2855,10 +2969,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>1676</v>
+        <v>820</v>
       </c>
       <c r="I33" s="7">
-        <v>1011771</v>
+        <v>605473</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -2870,10 +2984,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>2695</v>
+        <v>1388</v>
       </c>
       <c r="N33" s="7">
-        <v>1703034</v>
+        <v>972113</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -2887,31 +3001,31 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1261</v>
+        <v>105</v>
       </c>
       <c r="D34" s="7">
-        <v>1489171</v>
+        <v>67336</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="H34" s="7">
-        <v>1669</v>
+        <v>124</v>
       </c>
       <c r="I34" s="7">
-        <v>1425807</v>
+        <v>62990</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>231</v>
@@ -2923,10 +3037,10 @@
         <v>233</v>
       </c>
       <c r="M34" s="7">
-        <v>2930</v>
+        <v>229</v>
       </c>
       <c r="N34" s="7">
-        <v>2914978</v>
+        <v>130326</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>234</v>
@@ -2944,10 +3058,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1527</v>
+        <v>237</v>
       </c>
       <c r="D35" s="7">
-        <v>1393789</v>
+        <v>147592</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>237</v>
@@ -2959,34 +3073,34 @@
         <v>239</v>
       </c>
       <c r="H35" s="7">
-        <v>2526</v>
+        <v>441</v>
       </c>
       <c r="I35" s="7">
-        <v>1671044</v>
+        <v>218800</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
-        <v>4053</v>
+        <v>678</v>
       </c>
       <c r="N35" s="7">
-        <v>3064833</v>
+        <v>366392</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,49 +3109,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>486</v>
+        <v>95</v>
       </c>
       <c r="D36" s="7">
-        <v>408612</v>
+        <v>55720</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="7">
         <v>246</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" s="7">
-        <v>939</v>
-      </c>
       <c r="I36" s="7">
-        <v>563602</v>
+        <v>112434</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
-        <v>1425</v>
+        <v>341</v>
       </c>
       <c r="N36" s="7">
-        <v>972214</v>
+        <v>168155</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,49 +3160,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D37" s="7">
-        <v>78376</v>
+        <v>7629</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="I37" s="7">
-        <v>116725</v>
+        <v>20856</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
+        <v>59</v>
+      </c>
+      <c r="N37" s="7">
+        <v>28485</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="N37" s="7">
-        <v>195101</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,63 +3211,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>451</v>
+      </c>
+      <c r="D38" s="7">
+        <v>278277</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>856</v>
+      </c>
+      <c r="I38" s="7">
+        <v>415081</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1307</v>
+      </c>
+      <c r="N38" s="7">
+        <v>693358</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1261</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1627288</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1669</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1392096</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2930</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3019384</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1527</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1354907</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2526</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1626348</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" s="7">
+        <v>4053</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2981254</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>486</v>
+      </c>
+      <c r="D41" s="7">
+        <v>384778</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="7">
+        <v>939</v>
+      </c>
+      <c r="I41" s="7">
+        <v>508651</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1425</v>
+      </c>
+      <c r="N41" s="7">
+        <v>893429</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>86</v>
+      </c>
+      <c r="D42" s="7">
+        <v>77966</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H42" s="7">
+        <v>176</v>
+      </c>
+      <c r="I42" s="7">
+        <v>106617</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" s="7">
+        <v>262</v>
+      </c>
+      <c r="N42" s="7">
+        <v>184584</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3360</v>
       </c>
-      <c r="D38" s="7">
-        <v>3369948</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3444939</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>5310</v>
       </c>
-      <c r="I38" s="7">
-        <v>3777178</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3633712</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>8670</v>
       </c>
-      <c r="N38" s="7">
-        <v>7147126</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>261</v>
+      <c r="N43" s="7">
+        <v>7078651</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
